--- a/table/pca_pc.xlsx
+++ b/table/pca_pc.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="pc" sheetId="1" r:id="rId1"/>
+    <sheet name="pc1-5" sheetId="2" r:id="rId2"/>
+    <sheet name="pc6-10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>PC1</t>
   </si>
@@ -822,4 +824,464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.3309</v>
+      </c>
+      <c r="C2">
+        <v>0.2278</v>
+      </c>
+      <c r="D2">
+        <v>-0.4898</v>
+      </c>
+      <c r="E2">
+        <v>0.1851</v>
+      </c>
+      <c r="F2">
+        <v>-0.2988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.3934</v>
+      </c>
+      <c r="C3">
+        <v>0.1417</v>
+      </c>
+      <c r="D3">
+        <v>-0.4667</v>
+      </c>
+      <c r="E3">
+        <v>-0.2134</v>
+      </c>
+      <c r="F3">
+        <v>-0.0538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.3206</v>
+      </c>
+      <c r="C4">
+        <v>-0.0514</v>
+      </c>
+      <c r="D4">
+        <v>-0.2801</v>
+      </c>
+      <c r="E4">
+        <v>-0.2941</v>
+      </c>
+      <c r="F4">
+        <v>0.2987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.3004</v>
+      </c>
+      <c r="C5">
+        <v>-0.9271</v>
+      </c>
+      <c r="D5">
+        <v>-0.0594</v>
+      </c>
+      <c r="E5">
+        <v>0.1589</v>
+      </c>
+      <c r="F5">
+        <v>-0.06950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.3123</v>
+      </c>
+      <c r="C6">
+        <v>0.1293</v>
+      </c>
+      <c r="D6">
+        <v>0.294</v>
+      </c>
+      <c r="E6">
+        <v>0.1926</v>
+      </c>
+      <c r="F6">
+        <v>-0.4491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.3322</v>
+      </c>
+      <c r="C7">
+        <v>0.0949</v>
+      </c>
+      <c r="D7">
+        <v>0.3075</v>
+      </c>
+      <c r="E7">
+        <v>-0.0422</v>
+      </c>
+      <c r="F7">
+        <v>-0.4399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.2231</v>
+      </c>
+      <c r="C8">
+        <v>0.1349</v>
+      </c>
+      <c r="D8">
+        <v>0.0169</v>
+      </c>
+      <c r="E8">
+        <v>0.6505</v>
+      </c>
+      <c r="F8">
+        <v>0.3831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.358</v>
+      </c>
+      <c r="C9">
+        <v>0.08119999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.2166</v>
+      </c>
+      <c r="E9">
+        <v>-0.4003</v>
+      </c>
+      <c r="F9">
+        <v>0.3761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.2591</v>
+      </c>
+      <c r="C10">
+        <v>0.1241</v>
+      </c>
+      <c r="D10">
+        <v>0.1635</v>
+      </c>
+      <c r="E10">
+        <v>0.359</v>
+      </c>
+      <c r="F10">
+        <v>0.3552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.2995</v>
+      </c>
+      <c r="C11">
+        <v>0.002</v>
+      </c>
+      <c r="D11">
+        <v>0.4532</v>
+      </c>
+      <c r="E11">
+        <v>-0.2394</v>
+      </c>
+      <c r="F11">
+        <v>0.06469999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.3535</v>
+      </c>
+      <c r="C2">
+        <v>-0.381</v>
+      </c>
+      <c r="D2">
+        <v>0.107</v>
+      </c>
+      <c r="E2">
+        <v>-0.4206</v>
+      </c>
+      <c r="F2">
+        <v>-0.1292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.0021</v>
+      </c>
+      <c r="C3">
+        <v>0.1049</v>
+      </c>
+      <c r="D3">
+        <v>-0.0217</v>
+      </c>
+      <c r="E3">
+        <v>0.7214</v>
+      </c>
+      <c r="F3">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.1933</v>
+      </c>
+      <c r="C4">
+        <v>0.601</v>
+      </c>
+      <c r="D4">
+        <v>-0.0182</v>
+      </c>
+      <c r="E4">
+        <v>-0.4895</v>
+      </c>
+      <c r="F4">
+        <v>-0.0423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.0029</v>
+      </c>
+      <c r="C5">
+        <v>-0.1215</v>
+      </c>
+      <c r="D5">
+        <v>0.0206</v>
+      </c>
+      <c r="E5">
+        <v>0.0388</v>
+      </c>
+      <c r="F5">
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.2638</v>
+      </c>
+      <c r="C6">
+        <v>0.1404</v>
+      </c>
+      <c r="D6">
+        <v>0.0945</v>
+      </c>
+      <c r="E6">
+        <v>-0.1513</v>
+      </c>
+      <c r="F6">
+        <v>0.6629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.2706</v>
+      </c>
+      <c r="C7">
+        <v>0.1018</v>
+      </c>
+      <c r="D7">
+        <v>-0.1992</v>
+      </c>
+      <c r="E7">
+        <v>0.08649999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-0.6782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.0285</v>
+      </c>
+      <c r="C8">
+        <v>0.06270000000000001</v>
+      </c>
+      <c r="D8">
+        <v>-0.5948</v>
+      </c>
+      <c r="E8">
+        <v>0.0509</v>
+      </c>
+      <c r="F8">
+        <v>0.0261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.2832</v>
+      </c>
+      <c r="C9">
+        <v>-0.6331</v>
+      </c>
+      <c r="D9">
+        <v>-0.1208</v>
+      </c>
+      <c r="E9">
+        <v>-0.09810000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.0814</v>
+      </c>
+      <c r="C10">
+        <v>0.0403</v>
+      </c>
+      <c r="D10">
+        <v>0.7544</v>
+      </c>
+      <c r="E10">
+        <v>0.1349</v>
+      </c>
+      <c r="F10">
+        <v>-0.2002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.7792</v>
+      </c>
+      <c r="C11">
+        <v>0.1774</v>
+      </c>
+      <c r="D11">
+        <v>-0.0338</v>
+      </c>
+      <c r="E11">
+        <v>0.0266</v>
+      </c>
+      <c r="F11">
+        <v>0.0544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>